--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1555845.851758533</v>
+        <v>-1558405.12232609</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673428</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,10 +659,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>115.3866150362829</v>
       </c>
       <c r="D2" t="n">
-        <v>126.5085509212338</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9662774206981</v>
       </c>
       <c r="H2" t="n">
         <v>295.0640301736143</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>43.2945117796236</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>110.2029851842623</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>204.1129955007334</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.9987361002815</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.82709352349997</v>
       </c>
       <c r="I3" t="n">
-        <v>9.512185486736371</v>
+        <v>9.512185486736385</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0457926480648</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.9326943004822</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.95340549104682</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>190.11729872947</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.6343371202345</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2129282631967</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>146.268272874681</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>170.5318536758166</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>60.03388914270725</v>
+        <v>69.588033522505</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -953,10 +953,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>87.11641605590749</v>
       </c>
       <c r="V7" t="n">
-        <v>235.9434483276194</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,10 +1148,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>208.5689900105823</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>9.099573361142072</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>276.3131549281892</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>117.922552818491</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>53.08838020946148</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>105.9893107373025</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1585,10 +1585,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323829</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01276235473561655</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1777,7 +1777,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>93.38904885909308</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2005,13 +2005,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>1.594095449514225</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>241.1435815093809</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>160.6789846282035</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>8.616048582068929</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>27.02919805176171</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053457</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2719,7 +2719,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,16 +2761,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>80.33989744908975</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>139.9142662664071</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>101.4912798484948</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.0656089242822</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3238,7 +3238,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3563,7 +3563,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3670,16 +3670,16 @@
         <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308919</v>
       </c>
       <c r="G40" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1656.993223436222</v>
+        <v>2093.91140845142</v>
       </c>
       <c r="C2" t="n">
-        <v>1288.03070649581</v>
+        <v>1977.359272051135</v>
       </c>
       <c r="D2" t="n">
-        <v>1160.244291423857</v>
+        <v>1619.093573444384</v>
       </c>
       <c r="E2" t="n">
-        <v>774.4560388256127</v>
+        <v>1233.30532084614</v>
       </c>
       <c r="F2" t="n">
-        <v>363.4701340360051</v>
+        <v>822.3194160565324</v>
       </c>
       <c r="G2" t="n">
-        <v>363.4701340360051</v>
+        <v>407.2019641164334</v>
       </c>
       <c r="H2" t="n">
-        <v>65.42565911316237</v>
+        <v>109.1574891935907</v>
       </c>
       <c r="I2" t="n">
-        <v>65.42565911316237</v>
+        <v>65.42565911316235</v>
       </c>
       <c r="J2" t="n">
         <v>250.5613272725632</v>
       </c>
       <c r="K2" t="n">
-        <v>578.7702206183958</v>
+        <v>578.7702206183949</v>
       </c>
       <c r="L2" t="n">
         <v>1022.844136887446</v>
@@ -4343,37 +4343,37 @@
         <v>2087.540198746181</v>
       </c>
       <c r="O2" t="n">
-        <v>2583.081262767917</v>
+        <v>2583.081262767916</v>
       </c>
       <c r="P2" t="n">
-        <v>2971.513095303806</v>
+        <v>2971.513095303805</v>
       </c>
       <c r="Q2" t="n">
-        <v>3215.036478301003</v>
+        <v>3215.036478301002</v>
       </c>
       <c r="R2" t="n">
-        <v>3271.282955658119</v>
+        <v>3271.282955658118</v>
       </c>
       <c r="S2" t="n">
-        <v>3159.966809007349</v>
+        <v>3271.282955658118</v>
       </c>
       <c r="T2" t="n">
-        <v>3159.966809007349</v>
+        <v>3065.108212728084</v>
       </c>
       <c r="U2" t="n">
-        <v>3159.966809007349</v>
+        <v>2811.574135859113</v>
       </c>
       <c r="V2" t="n">
-        <v>3159.966809007349</v>
+        <v>2480.511248515542</v>
       </c>
       <c r="W2" t="n">
-        <v>2807.198153737235</v>
+        <v>2480.511248515542</v>
       </c>
       <c r="X2" t="n">
-        <v>2433.732395476155</v>
+        <v>2480.511248515542</v>
       </c>
       <c r="Y2" t="n">
-        <v>2043.593063500343</v>
+        <v>2480.511248515542</v>
       </c>
     </row>
     <row r="3">
@@ -4404,16 +4404,16 @@
         <v>75.03392728158295</v>
       </c>
       <c r="I3" t="n">
-        <v>65.42565911316237</v>
+        <v>65.42565911316235</v>
       </c>
       <c r="J3" t="n">
-        <v>156.8733478056106</v>
+        <v>156.8733478056105</v>
       </c>
       <c r="K3" t="n">
-        <v>419.000857536035</v>
+        <v>419.0008575360354</v>
       </c>
       <c r="L3" t="n">
-        <v>780.5750497221807</v>
+        <v>780.5750497221809</v>
       </c>
       <c r="M3" t="n">
         <v>1221.871945822811</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.333939139359</v>
+        <v>679.2815225337084</v>
       </c>
       <c r="C4" t="n">
-        <v>922.3977562114518</v>
+        <v>510.3453396058015</v>
       </c>
       <c r="D4" t="n">
-        <v>772.2811167991161</v>
+        <v>360.2287001934658</v>
       </c>
       <c r="E4" t="n">
-        <v>624.368023216723</v>
+        <v>212.3156066110727</v>
       </c>
       <c r="F4" t="n">
-        <v>477.4780757188127</v>
+        <v>65.42565911316235</v>
       </c>
       <c r="G4" t="n">
-        <v>309.7550528419796</v>
+        <v>65.42565911316235</v>
       </c>
       <c r="H4" t="n">
-        <v>163.3583919324016</v>
+        <v>65.42565911316235</v>
       </c>
       <c r="I4" t="n">
-        <v>65.42565911316237</v>
+        <v>65.42565911316235</v>
       </c>
       <c r="J4" t="n">
-        <v>109.1495242182616</v>
+        <v>109.1495242182614</v>
       </c>
       <c r="K4" t="n">
         <v>310.8381027401522</v>
@@ -4495,7 +4495,7 @@
         <v>624.4564789039123</v>
       </c>
       <c r="M4" t="n">
-        <v>965.5122071220437</v>
+        <v>965.5122071220436</v>
       </c>
       <c r="N4" t="n">
         <v>1303.893008842036</v>
@@ -4507,31 +4507,31 @@
         <v>1830.640801863761</v>
       </c>
       <c r="Q4" t="n">
-        <v>1906.594412149535</v>
+        <v>1906.594412149534</v>
       </c>
       <c r="R4" t="n">
-        <v>1906.594412149535</v>
+        <v>1906.594412149534</v>
       </c>
       <c r="S4" t="n">
-        <v>1714.556736665221</v>
+        <v>1906.594412149534</v>
       </c>
       <c r="T4" t="n">
-        <v>1714.556736665221</v>
+        <v>1684.741546371519</v>
       </c>
       <c r="U4" t="n">
-        <v>1714.556736665221</v>
+        <v>1395.637578428896</v>
       </c>
       <c r="V4" t="n">
-        <v>1459.872248459335</v>
+        <v>1140.953090223009</v>
       </c>
       <c r="W4" t="n">
-        <v>1312.126518282889</v>
+        <v>851.5359201860483</v>
       </c>
       <c r="X4" t="n">
-        <v>1312.126518282889</v>
+        <v>679.2815225337084</v>
       </c>
       <c r="Y4" t="n">
-        <v>1091.333939139359</v>
+        <v>679.2815225337084</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1274.539111149739</v>
+        <v>1363.124011696101</v>
       </c>
       <c r="C5" t="n">
-        <v>1213.898819086399</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D5" t="n">
-        <v>1213.898819086399</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881545</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912089</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450753</v>
+        <v>2513.328941997115</v>
       </c>
       <c r="X5" t="n">
-        <v>2051.278283189673</v>
+        <v>2139.863183736035</v>
       </c>
       <c r="Y5" t="n">
-        <v>1661.138951213861</v>
+        <v>1749.723851760223</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>777.020896318616</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="C7" t="n">
-        <v>608.0847133907091</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="D7" t="n">
-        <v>457.9680739783734</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959802</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959802</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U7" t="n">
-        <v>1645.778206672847</v>
+        <v>1617.531552803567</v>
       </c>
       <c r="V7" t="n">
-        <v>1407.451491190403</v>
+        <v>1362.84706459768</v>
       </c>
       <c r="W7" t="n">
-        <v>1407.451491190403</v>
+        <v>1073.429894560719</v>
       </c>
       <c r="X7" t="n">
-        <v>1179.461940292386</v>
+        <v>845.4403436627018</v>
       </c>
       <c r="Y7" t="n">
-        <v>958.6693611488557</v>
+        <v>624.6477645191717</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1934.208022973022</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C8" t="n">
-        <v>1934.208022973022</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4814,7 +4814,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792695</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.48361052258</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2320.807863037144</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>2320.807863037144</v>
+        <v>1689.318139675982</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4857,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4899,34 +4899,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>550.0410834832817</v>
+        <v>944.7237329438971</v>
       </c>
       <c r="C10" t="n">
-        <v>381.1049005553748</v>
+        <v>775.7875500159902</v>
       </c>
       <c r="D10" t="n">
-        <v>381.1049005553748</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U10" t="n">
-        <v>1615.697475415547</v>
+        <v>1648.190351191332</v>
       </c>
       <c r="V10" t="n">
-        <v>1361.01298720966</v>
+        <v>1393.505862985445</v>
       </c>
       <c r="W10" t="n">
-        <v>1071.595817172699</v>
+        <v>1393.505862985445</v>
       </c>
       <c r="X10" t="n">
-        <v>952.4821274570515</v>
+        <v>1165.516312087427</v>
       </c>
       <c r="Y10" t="n">
-        <v>731.6895483135214</v>
+        <v>944.7237329438971</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5030,31 +5030,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5066,25 +5066,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,10 +5112,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5130,7 +5130,7 @@
         <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5173,7 +5173,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>983.3556038098232</v>
       </c>
       <c r="C13" t="n">
         <v>929.7309773356194</v>
@@ -5191,16 +5191,16 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
         <v>826.140538179774</v>
@@ -5215,34 +5215,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2272.857469997004</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2272.857469997004</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
-        <v>1983.782243341201</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V13" t="n">
-        <v>1729.097755135313</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1613.78619868161</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="14">
@@ -5267,22 +5267,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5291,10 +5291,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5315,10 +5315,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N15" t="n">
-        <v>1700.311647517212</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>762.5477693179088</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5348780504994</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1339.368993063876</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614389</v>
+        <v>1111.379442165859</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179088</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="17">
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>634.3345878491251</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
         <v>484.8112968429803</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2227.361618603201</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1972.677130397314</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="20">
@@ -5738,22 +5738,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5829,25 +5829,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>869.974531143471</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C22" t="n">
-        <v>701.0383482155642</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D22" t="n">
-        <v>550.9217088032284</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="E22" t="n">
-        <v>403.0086152208353</v>
+        <v>416.6057892068302</v>
       </c>
       <c r="F22" t="n">
-        <v>256.1186677229249</v>
+        <v>269.7158417089191</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>102.5197424237991</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>102.5197424237991</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U22" t="n">
-        <v>2044.506784258106</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V22" t="n">
-        <v>1789.822296052219</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W22" t="n">
-        <v>1500.405126015258</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X22" t="n">
-        <v>1272.415575117241</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y22" t="n">
-        <v>1051.622995973711</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004712</v>
@@ -5975,7 +5975,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.853600740071</v>
+        <v>571.6607764188007</v>
       </c>
       <c r="C25" t="n">
-        <v>344.917417812165</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>344.917417812165</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>344.917417812165</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>344.917417812165</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138409</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703106</v>
+        <v>753.3092412490404</v>
       </c>
     </row>
     <row r="26">
@@ -6215,10 +6215,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>721.7774158311361</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C28" t="n">
-        <v>552.8412329032292</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908935</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908935</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908935</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6385,7 +6385,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
         <v>826.1405381797742</v>
@@ -6394,7 +6394,7 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
         <v>2035.089393279802</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>1896.309668945771</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V28" t="n">
-        <v>1641.625180739884</v>
+        <v>1729.913146516562</v>
       </c>
       <c r="W28" t="n">
-        <v>1352.208010702923</v>
+        <v>1440.495976479601</v>
       </c>
       <c r="X28" t="n">
-        <v>1124.218459804906</v>
+        <v>1212.506425581584</v>
       </c>
       <c r="Y28" t="n">
-        <v>903.4258806613758</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004712</v>
@@ -6449,22 +6449,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6537,16 +6537,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
         <v>1373.553594266881</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.2707707770317</v>
+        <v>513.8536007400718</v>
       </c>
       <c r="C31" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="D31" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270448</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797189</v>
@@ -6622,34 +6622,34 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
         <v>1688.385853854706</v>
@@ -6658,13 +6658,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.9192356072714</v>
+        <v>695.5020655703115</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6856,10 +6856,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
         <v>898.2659412311323</v>
@@ -6886,10 +6886,10 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
@@ -6898,10 +6898,10 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6935,19 +6935,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,7 +6971,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852889</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7072,7 +7072,7 @@
         <v>926.9575315319321</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D37" t="n">
         <v>656.9646031150021</v>
@@ -7084,16 +7084,16 @@
         <v>411.2214559580112</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384017</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954152</v>
       </c>
       <c r="K37" t="n">
         <v>483.8255460380731</v>
@@ -7123,7 +7123,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
         <v>1978.840049838285</v>
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7175,7 +7175,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7211,10 +7211,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7333,10 +7333,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7357,13 +7357,13 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7549,22 +7549,22 @@
         <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
@@ -7573,22 +7573,22 @@
         <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931273</v>
@@ -7597,7 +7597,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838285</v>
@@ -7606,7 +7606,7 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
         <v>1280.338681582389</v>
@@ -7643,31 +7643,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7722,7 +7722,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
@@ -7734,10 +7734,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7828,7 +7828,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -7837,19 +7837,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>27.95355500661913</v>
+        <v>27.95355500661969</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.622913276780253</v>
+        <v>1.622913276780281</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -22547,10 +22547,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>249.8862767347246</v>
       </c>
       <c r="D2" t="n">
-        <v>228.1744906994492</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9662774206981</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>43.29451177962358</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>110.2029851842623</v>
       </c>
       <c r="T2" t="n">
-        <v>204.1129955007334</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.9987361002815</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22717,13 +22717,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0457926480648</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.9326943004822</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.95340549104682</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,28 +22750,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>89.8307234716369</v>
+        <v>89.83072347163693</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>190.1172987294701</v>
       </c>
       <c r="T4" t="n">
-        <v>219.6343371202345</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2129282631967</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>140.25472546191</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>55.17780171322056</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>114.1584408891663</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>75.03697526434213</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2340587438922</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>193.1339494774979</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,13 +23893,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>147.0213775686981</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23935,22 +23935,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>45.37941682721012</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>4.84515366406536</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>72.64978773649661</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>138.4949402405071</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>57.22910392194259</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,16 +24649,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>205.8445769401544</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>112.2233770574209</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,13 +24838,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>65.75554125013305</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194169</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25558,7 +25558,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>-2.542410854077366e-13</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -26326,7 +26326,7 @@
         <v>141250.6549457511</v>
       </c>
       <c r="G2" t="n">
-        <v>141250.6549457512</v>
+        <v>141250.6549457511</v>
       </c>
       <c r="H2" t="n">
         <v>141250.6549457511</v>
@@ -26341,16 +26341,16 @@
         <v>141250.6549457511</v>
       </c>
       <c r="L2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="M2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="N2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="O2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="P2" t="n">
         <v>143682.3097262496</v>
@@ -26366,13 +26366,13 @@
         <v>1313514.533081207</v>
       </c>
       <c r="C3" t="n">
-        <v>14479.05232074541</v>
+        <v>14479.05232074572</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>213977.8894125532</v>
+        <v>213977.8894125531</v>
       </c>
       <c r="K3" t="n">
-        <v>3495.241841022551</v>
+        <v>3495.241841022639</v>
       </c>
       <c r="L3" t="n">
         <v>19427.71799363178</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13002.08618742619</v>
+        <v>13002.0861874262</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316945</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316945</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181816</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="F4" t="n">
         <v>12386.92018181813</v>
@@ -26433,19 +26433,19 @@
         <v>12386.92018181813</v>
       </c>
       <c r="H4" t="n">
+        <v>12386.92018181815</v>
+      </c>
+      <c r="I4" t="n">
         <v>12386.92018181813</v>
-      </c>
-      <c r="I4" t="n">
-        <v>12386.92018181816</v>
       </c>
       <c r="J4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="K4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181815</v>
       </c>
       <c r="L4" t="n">
-        <v>20377.7794449116</v>
+        <v>20377.77944491161</v>
       </c>
       <c r="M4" t="n">
         <v>20377.77944491161</v>
@@ -26454,10 +26454,10 @@
         <v>20377.77944491162</v>
       </c>
       <c r="O4" t="n">
-        <v>20377.77944491159</v>
+        <v>20377.77944491161</v>
       </c>
       <c r="P4" t="n">
-        <v>20377.77944491159</v>
+        <v>20377.7794449116</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1314906.76054572</v>
+        <v>-1315266.843561437</v>
       </c>
       <c r="C6" t="n">
-        <v>-70304.63810905853</v>
+        <v>-70304.6381090588</v>
       </c>
       <c r="D6" t="n">
-        <v>-55825.58578831311</v>
+        <v>-55825.58578831315</v>
       </c>
       <c r="E6" t="n">
-        <v>-297671.2568673293</v>
+        <v>-297705.9947927652</v>
       </c>
       <c r="F6" t="n">
-        <v>27741.20494002585</v>
+        <v>27706.46701459019</v>
       </c>
       <c r="G6" t="n">
-        <v>27741.20494002591</v>
+        <v>27706.46701459013</v>
       </c>
       <c r="H6" t="n">
-        <v>27741.20494002588</v>
+        <v>27706.46701459018</v>
       </c>
       <c r="I6" t="n">
-        <v>27741.20494002585</v>
+        <v>27706.46701459013</v>
       </c>
       <c r="J6" t="n">
-        <v>-186236.6844725274</v>
+        <v>-186271.422397963</v>
       </c>
       <c r="K6" t="n">
-        <v>24245.96309900332</v>
+        <v>24211.22517356745</v>
       </c>
       <c r="L6" t="n">
-        <v>712.6964337909012</v>
+        <v>712.6964337908139</v>
       </c>
       <c r="M6" t="n">
-        <v>-64914.61350808915</v>
+        <v>-64914.61350808919</v>
       </c>
       <c r="N6" t="n">
-        <v>20140.41442742267</v>
+        <v>20140.41442742255</v>
       </c>
       <c r="O6" t="n">
-        <v>20140.41442742267</v>
+        <v>20140.4144274226</v>
       </c>
       <c r="P6" t="n">
-        <v>20140.41442742261</v>
+        <v>20140.41442742263</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="N2" t="n">
         <v>24.28464749203975</v>
       </c>
-      <c r="N2" t="n">
-        <v>24.28464749203973</v>
-      </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="3">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>817.8207389145297</v>
+        <v>817.8207389145294</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>1078.694448491203</v>
       </c>
       <c r="C3" t="n">
-        <v>11.08225210209548</v>
+        <v>11.08225210209571</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>817.8207389145297</v>
+        <v>817.8207389145294</v>
       </c>
       <c r="C4" t="n">
-        <v>13.58071648776286</v>
+        <v>13.5807164877632</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>817.8207389145298</v>
+        <v>817.8207389145294</v>
       </c>
       <c r="K4" t="n">
-        <v>13.58071648776286</v>
+        <v>13.5807164877632</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>817.8207389145297</v>
+        <v>817.8207389145294</v>
       </c>
       <c r="K4" t="n">
-        <v>13.58071648776286</v>
+        <v>13.5807164877632</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>305.2390026283003</v>
+        <v>295.6848582485026</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,10 +27673,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>199.0954221497054</v>
       </c>
       <c r="V7" t="n">
-        <v>16.19419499620858</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>161.1621106678868</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>377.1383652949115</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>9.898683277423686</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>107.7871025705461</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>9.848122317634988e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28305,7 +28305,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>-9.566747394273988e-13</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -30046,7 +30046,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30283,7 +30283,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
   </sheetData>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.336460094436993</v>
+        <v>4.336460094436992</v>
       </c>
       <c r="H2" t="n">
         <v>44.41077194215286</v>
@@ -31048,37 +31048,37 @@
         <v>167.1813777907823</v>
       </c>
       <c r="J2" t="n">
-        <v>368.0516299402221</v>
+        <v>368.051629940222</v>
       </c>
       <c r="K2" t="n">
-        <v>551.6139857377401</v>
+        <v>551.61398573774</v>
       </c>
       <c r="L2" t="n">
-        <v>684.3259263528663</v>
+        <v>684.3259263528662</v>
       </c>
       <c r="M2" t="n">
-        <v>761.4444485573102</v>
+        <v>761.44444855731</v>
       </c>
       <c r="N2" t="n">
-        <v>773.7654158006294</v>
+        <v>773.7654158006292</v>
       </c>
       <c r="O2" t="n">
-        <v>730.6447407365715</v>
+        <v>730.6447407365713</v>
       </c>
       <c r="P2" t="n">
-        <v>623.5883821551581</v>
+        <v>623.588382155158</v>
       </c>
       <c r="Q2" t="n">
-        <v>468.2889050231332</v>
+        <v>468.2889050231331</v>
       </c>
       <c r="R2" t="n">
         <v>272.400161407178</v>
       </c>
       <c r="S2" t="n">
-        <v>98.81708440198308</v>
+        <v>98.81708440198305</v>
       </c>
       <c r="T2" t="n">
-        <v>18.98285406339795</v>
+        <v>18.98285406339794</v>
       </c>
       <c r="U2" t="n">
         <v>0.3469168075549593</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.320210700528248</v>
+        <v>2.320210700528247</v>
       </c>
       <c r="H3" t="n">
-        <v>22.4083507129965</v>
+        <v>22.40835071299649</v>
       </c>
       <c r="I3" t="n">
-        <v>79.88444736467871</v>
+        <v>79.88444736467869</v>
       </c>
       <c r="J3" t="n">
-        <v>219.2090293863114</v>
+        <v>219.2090293863113</v>
       </c>
       <c r="K3" t="n">
-        <v>374.6631463217039</v>
+        <v>374.6631463217038</v>
       </c>
       <c r="L3" t="n">
-        <v>503.7808365335566</v>
+        <v>503.7808365335565</v>
       </c>
       <c r="M3" t="n">
-        <v>587.8884744277054</v>
+        <v>587.8884744277053</v>
       </c>
       <c r="N3" t="n">
-        <v>603.448133029055</v>
+        <v>603.4481330290549</v>
       </c>
       <c r="O3" t="n">
-        <v>552.0371485594554</v>
+        <v>552.0371485594553</v>
       </c>
       <c r="P3" t="n">
-        <v>443.0584801736792</v>
+        <v>443.0584801736791</v>
       </c>
       <c r="Q3" t="n">
-        <v>296.1728606498865</v>
+        <v>296.1728606498864</v>
       </c>
       <c r="R3" t="n">
         <v>144.0565906871837</v>
       </c>
       <c r="S3" t="n">
-        <v>43.09689612604001</v>
+        <v>43.09689612604</v>
       </c>
       <c r="T3" t="n">
-        <v>9.352077341164293</v>
+        <v>9.352077341164291</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1526454408242269</v>
+        <v>0.1526454408242268</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>17.29447820695733</v>
       </c>
       <c r="I4" t="n">
-        <v>58.49706943621147</v>
+        <v>58.49706943621145</v>
       </c>
       <c r="J4" t="n">
         <v>137.5247004248538</v>
@@ -31212,7 +31212,7 @@
         <v>225.9953287166814</v>
       </c>
       <c r="L4" t="n">
-        <v>289.1962132889366</v>
+        <v>289.1962132889365</v>
       </c>
       <c r="M4" t="n">
         <v>304.9168586120296</v>
@@ -31230,13 +31230,13 @@
         <v>162.8828617221716</v>
       </c>
       <c r="R4" t="n">
-        <v>87.46266790553258</v>
+        <v>87.46266790553256</v>
       </c>
       <c r="S4" t="n">
-        <v>33.89929930750221</v>
+        <v>33.8992993075022</v>
       </c>
       <c r="T4" t="n">
-        <v>8.311252308046969</v>
+        <v>8.311252308046967</v>
       </c>
       <c r="U4" t="n">
         <v>0.1061010932942168</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31850,10 +31850,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32084,13 +32084,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>340.4395077511235</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32099,7 +32099,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32324,7 +32324,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>320.9147064709964</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,28 +32549,28 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32704,7 +32704,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32783,31 +32783,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>489.3502824033309</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
@@ -33032,19 +33032,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>555.0107214892114</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33199,7 +33199,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
         <v>593.8732233669223</v>
@@ -33257,19 +33257,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33895,7 +33895,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33916,7 +33916,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236526</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34445,22 +34445,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34472,10 +34472,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>187.0057254135358</v>
+        <v>187.0057254135357</v>
       </c>
       <c r="K2" t="n">
-        <v>331.5241346927596</v>
+        <v>331.5241346927594</v>
       </c>
       <c r="L2" t="n">
-        <v>448.5595113828791</v>
+        <v>448.559511382879</v>
       </c>
       <c r="M2" t="n">
-        <v>531.0982153300375</v>
+        <v>531.0982153300373</v>
       </c>
       <c r="N2" t="n">
-        <v>544.3523522040384</v>
+        <v>544.3523522040382</v>
       </c>
       <c r="O2" t="n">
-        <v>500.5465293148848</v>
+        <v>500.5465293148845</v>
       </c>
       <c r="P2" t="n">
-        <v>392.3553863998886</v>
+        <v>392.3553863998885</v>
       </c>
       <c r="Q2" t="n">
-        <v>245.9832151486837</v>
+        <v>245.9832151486836</v>
       </c>
       <c r="R2" t="n">
-        <v>56.81462359304589</v>
+        <v>56.81462359304584</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>92.37140271964466</v>
+        <v>92.37140271964461</v>
       </c>
       <c r="K3" t="n">
-        <v>264.7752623539641</v>
+        <v>264.7752623539645</v>
       </c>
       <c r="L3" t="n">
-        <v>365.2264567536824</v>
+        <v>365.2264567536823</v>
       </c>
       <c r="M3" t="n">
-        <v>445.7544405056871</v>
+        <v>445.754440505687</v>
       </c>
       <c r="N3" t="n">
-        <v>472.1064209457218</v>
+        <v>472.1064209457217</v>
       </c>
       <c r="O3" t="n">
-        <v>409.440904115011</v>
+        <v>409.4409041150109</v>
       </c>
       <c r="P3" t="n">
-        <v>309.0840727593489</v>
+        <v>309.0840727593488</v>
       </c>
       <c r="Q3" t="n">
-        <v>156.191086563865</v>
+        <v>156.1910865638649</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.16552030818104</v>
+        <v>44.16552030818102</v>
       </c>
       <c r="K4" t="n">
-        <v>203.7258368907986</v>
+        <v>203.7258368907985</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7862385492527</v>
+        <v>316.7862385492526</v>
       </c>
       <c r="M4" t="n">
-        <v>344.5007355738702</v>
+        <v>344.5007355738701</v>
       </c>
       <c r="N4" t="n">
         <v>341.7987896161536</v>
       </c>
       <c r="O4" t="n">
-        <v>299.5284276704532</v>
+        <v>299.5284276704531</v>
       </c>
       <c r="P4" t="n">
         <v>232.5400501292698</v>
       </c>
       <c r="Q4" t="n">
-        <v>76.72081847047723</v>
+        <v>76.7208184704772</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35498,10 +35498,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35732,13 +35732,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>197.843263306679</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35972,7 +35972,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>189.5729943876631</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36367,7 +36367,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
         <v>696.488651224316</v>
@@ -36431,31 +36431,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>347.2162484813126</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36680,19 +36680,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>423.6690094058781</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36847,7 +36847,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
@@ -36905,19 +36905,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37543,7 +37543,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,19 +37701,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.587454168383</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,25 +38090,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38187,10 +38187,10 @@
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q46" t="n">
         <v>144.686904791938</v>
